--- a/basic_pandas_matplotlib/my_monthly_reports/report_2025_10/average_price_weighted_2025_10.xlsx
+++ b/basic_pandas_matplotlib/my_monthly_reports/report_2025_10/average_price_weighted_2025_10.xlsx
@@ -571,7 +571,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>average_price</t>
+          <t>average_price_weighted</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
